--- a/medicine/Mort/Cimetière_de_Bouère/Cimetière_de_Bouère.xlsx
+++ b/medicine/Mort/Cimetière_de_Bouère/Cimetière_de_Bouère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bou%C3%A8re</t>
+          <t>Cimetière_de_Bouère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bouère est un cimetière communal situé à Bouère, en France. Il est caractérisé par un décor de type jardin à la française qui est constitué de buis et d’ifs centenaires. La végétation, la géométrie et la forme des lieux sont protégées par le statut de monuments historiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bou%C3%A8re</t>
+          <t>Cimetière_de_Bouère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il présente un quadrilatère divisé en quatre carrés aux angles abattus bordés de haies de buis, eux-mêmes divisés par des allées en croix marquées par des ifs taillés.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bou%C3%A8re</t>
+          <t>Cimetière_de_Bouère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé sur la commune de Bouère, dans le département français de la Mayenne.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bou%C3%A8re</t>
+          <t>Cimetière_de_Bouère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’origine, il existait deux cimetières à Bouère : 
 le cimetière attenant à l’église où l’on enterrait les enfants ;
-le cimetière de la Madeleine[1].
+le cimetière de la Madeleine.
 Le cimetière de Bouère est créé en 1778 à l'initiative du curé René-Robert Bourdet. Le cimetière est béni par l'évêque du Mans François-Gaspard de Jouffroy de Gonsans vers 1780. Un petit oratoire a été construit en 1810 à l'angle sud-ouest.
-L'édifice est inscrit au titre des monuments historiques en 2005[2].
+L'édifice est inscrit au titre des monuments historiques en 2005.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bou%C3%A8re</t>
+          <t>Cimetière_de_Bouère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +626,14 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>René-Robert Bourdet, curé de Bouère, député aux États généraux de 1789.
 Marin-Pierre Gaullier, chef chouan
 Pierre Gaullier, fils du précédent
-Marcellin Eucher Pourpe[3], officier d'infanterie, né en 1814 à Cucuron, mort en 1878 à Bouère, chevalier de la Légion d'honneur en 1852.
+Marcellin Eucher Pourpe, officier d'infanterie, né en 1814 à Cucuron, mort en 1878 à Bouère, chevalier de la Légion d'honneur en 1852.
 Robert Hirsch, acteur, en 2017.</t>
         </is>
       </c>
